--- a/rp/Excel/Pet_宠物.xlsx
+++ b/rp/Excel/Pet_宠物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9015" tabRatio="500"/>
+    <workbookView windowHeight="17655" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
   <si>
     <t>Int</t>
   </si>
@@ -58,7 +58,13 @@
 2-FeMale</t>
   </si>
   <si>
+    <t>0|50|0|0|0|0|2|2|2</t>
+  </si>
+  <si>
     <t>0|50|0|0|0|-90|1|1|1</t>
+  </si>
+  <si>
+    <t>0|50|25|0|0|0|1|1|1</t>
   </si>
 </sst>
 </file>
@@ -71,7 +77,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -86,6 +92,23 @@
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -549,142 +572,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -694,6 +717,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1228,10 +1260,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U200"/>
+  <dimension ref="A1:U201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.025" defaultRowHeight="16.5"/>
@@ -1353,18 +1385,18 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" ht="17.25" spans="1:21">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="1">
-        <v>156405</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="4">
+        <v>420535</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <v>0</v>
       </c>
       <c r="F5" s="1"/>
@@ -1390,10 +1422,10 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
-        <v>267954</v>
+        <v>156405</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1421,10 +1453,10 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="1">
-        <v>289523</v>
+        <v>267954</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1452,10 +1484,10 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="1">
-        <v>289524</v>
+        <v>289523</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1483,10 +1515,10 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="1">
-        <v>289525</v>
+        <v>289524</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -1514,10 +1546,10 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="1">
-        <v>289526</v>
+        <v>289525</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -1545,10 +1577,10 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="1">
-        <v>289527</v>
+        <v>289526</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -1576,10 +1608,10 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="1">
-        <v>365903</v>
+        <v>289527</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1607,10 +1639,10 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="1">
-        <v>365906</v>
+        <v>365903</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -1636,12 +1668,12 @@
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="1">
-        <v>365918</v>
+        <v>365906</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1669,10 +1701,10 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
-        <v>365921</v>
+        <v>365918</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1700,10 +1732,10 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
-        <v>365922</v>
+        <v>365921</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1731,10 +1763,10 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
-        <v>366268</v>
+        <v>365922</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1757,11 +1789,19 @@
       <c r="U17" s="1"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="1">
+        <v>366268</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1779,12 +1819,20 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="1"/>
+    <row r="19" ht="17.25" spans="1:21">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="C19" s="6">
+        <v>379426</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1802,12 +1850,20 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="1"/>
+    <row r="20" ht="17.25" spans="1:21">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="C20" s="6">
+        <v>379427</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1825,12 +1881,20 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="1"/>
+    <row r="21" ht="17.25" spans="1:21">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="C21" s="6">
+        <v>380285</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1848,12 +1912,20 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="1"/>
+    <row r="22" ht="17.25" spans="1:21">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="C22" s="6">
+        <v>380286</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1871,10 +1943,10 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" ht="17.25" spans="1:21">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -5965,6 +6037,29 @@
       <c r="T200" s="1"/>
       <c r="U200" s="1"/>
     </row>
+    <row r="201" spans="1:21">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+      <c r="P201" s="1"/>
+      <c r="Q201" s="1"/>
+      <c r="R201" s="1"/>
+      <c r="S201" s="1"/>
+      <c r="T201" s="1"/>
+      <c r="U201" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/rp/Excel/Pet_宠物.xlsx
+++ b/rp/Excel/Pet_宠物.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>Int</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>0|50|25|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|50|0|0|0|0|1|1|1</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1266,7 @@
   <dimension ref="A1:U201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.025" defaultRowHeight="16.5"/>
@@ -1944,11 +1947,19 @@
       <c r="U22" s="1"/>
     </row>
     <row r="23" ht="17.25" spans="1:21">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="C23" s="6">
+        <v>260129</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>

--- a/rp/Excel/Pet_宠物.xlsx
+++ b/rp/Excel/Pet_宠物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9015" tabRatio="500"/>
+    <workbookView windowHeight="17655" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>Int</t>
   </si>
@@ -58,7 +58,16 @@
 2-FeMale</t>
   </si>
   <si>
+    <t>0|50|0|0|0|0|2|2|2</t>
+  </si>
+  <si>
     <t>0|50|0|0|0|-90|1|1|1</t>
+  </si>
+  <si>
+    <t>0|50|25|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|50|0|0|0|0|1|1|1</t>
   </si>
 </sst>
 </file>
@@ -71,7 +80,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -86,6 +95,23 @@
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -549,142 +575,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -694,6 +720,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1228,10 +1263,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U200"/>
+  <dimension ref="A1:U201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.025" defaultRowHeight="16.5"/>
@@ -1353,18 +1388,18 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" ht="17.25" spans="1:21">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="1">
-        <v>156405</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="4">
+        <v>420535</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <v>0</v>
       </c>
       <c r="F5" s="1"/>
@@ -1390,10 +1425,10 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
-        <v>267954</v>
+        <v>156405</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1421,10 +1456,10 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="1">
-        <v>289523</v>
+        <v>267954</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1452,10 +1487,10 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="1">
-        <v>289524</v>
+        <v>289523</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1483,10 +1518,10 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="1">
-        <v>289525</v>
+        <v>289524</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -1514,10 +1549,10 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="1">
-        <v>289526</v>
+        <v>289525</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -1545,10 +1580,10 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="1">
-        <v>289527</v>
+        <v>289526</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -1576,10 +1611,10 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="1">
-        <v>365903</v>
+        <v>289527</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1607,10 +1642,10 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="1">
-        <v>365906</v>
+        <v>365903</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -1636,12 +1671,12 @@
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="1">
-        <v>365918</v>
+        <v>365906</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1669,10 +1704,10 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
-        <v>365921</v>
+        <v>365918</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1700,10 +1735,10 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
-        <v>365922</v>
+        <v>365921</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1731,10 +1766,10 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
-        <v>366268</v>
+        <v>365922</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1757,11 +1792,19 @@
       <c r="U17" s="1"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="1">
+        <v>366268</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1779,12 +1822,20 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="1"/>
+    <row r="19" ht="17.25" spans="1:21">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="C19" s="6">
+        <v>379426</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1802,12 +1853,20 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="1"/>
+    <row r="20" ht="17.25" spans="1:21">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="C20" s="6">
+        <v>379427</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1825,12 +1884,20 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="1"/>
+    <row r="21" ht="17.25" spans="1:21">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="C21" s="6">
+        <v>380285</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1848,12 +1915,20 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="1"/>
+    <row r="22" ht="17.25" spans="1:21">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="C22" s="6">
+        <v>380286</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1871,12 +1946,20 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="1"/>
+    <row r="23" ht="17.25" spans="1:21">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="C23" s="6">
+        <v>260129</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -5965,6 +6048,29 @@
       <c r="T200" s="1"/>
       <c r="U200" s="1"/>
     </row>
+    <row r="201" spans="1:21">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+      <c r="P201" s="1"/>
+      <c r="Q201" s="1"/>
+      <c r="R201" s="1"/>
+      <c r="S201" s="1"/>
+      <c r="T201" s="1"/>
+      <c r="U201" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
